--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/PH/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/PH/추가인원 가입 현황.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1484,6 +1484,1026 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>문이수</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>never5</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>상대초등학교</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 대해로79번길 14-10 성경빌라 가동 207호</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-06-17 15:52:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>김루아</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>throwdownstrate</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>11</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 성실로 50 206동 501호</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>김희성</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>trainercompassi</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>12</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>흥해남산초등학교</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 흥해읍 중성로32번길 30-1 가동 401호</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>신규리</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>hypernature</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>12</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>인덕초등학교</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 정몽주로861번길 19 라동 209호</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:18:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>오준하</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>loyaltybts</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>12</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>구정초등학교</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 중원로 16 103동 505호</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>이유진</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>honesty5</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>포항동부초등학교</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 삼흥로18번길 6 1동 505호</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:46:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>조하빈</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>studentfashion</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>13</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 성실로 50 206동 109호</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:52:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>이예성</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>allyfriendly</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>인덕초등학교</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 인덕로 71 3동 105호</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-06-17 16:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>한유승</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>translatorteen7</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>13</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>흥해남산초등학교</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 흥해읍 중성로32번길 30-1 가동 202호</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-06-17 17:06:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>서예건</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>baseballeducato</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>구정초등학교</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 정몽주로 702 103동 402호</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-06-17 17:16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>이예솔</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>motivator3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>포항동부초등학교</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 삼흥로32번길 5 103동 505호</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-06-17 17:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>김다빈</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>coolcompassion</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>구정초등학교</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 해병로 127 202동 109호</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-06-17 17:32:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>박율아</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>nightmath1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>12</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>문덕초등학교</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 냉천로 340 1동 406호</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-06-17 17:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>황세현</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sunshine9</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>13</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>흥해남산초등학교</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 흥해읍 중성로32번길 30-1 1동 101호</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-06-17 17:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>김우혁</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>gucci48</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>포항동부초등학교</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 삼흥로18번길 6 1동 407호</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>김수환</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>monkeyculture</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>문덕초등학교</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 해병로 405 청호하이츠 102동 405호</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:09:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>김서윤</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>kingtechie7</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>포항동부초등학교</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 삼흥로32번길 5 103동 503호</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:16:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>김민기</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>wittytiktok</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>흥해남산초등학교</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 흥해읍 중성로32번길 30-1 가동 507호</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>김경준</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>chill2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>13</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>인덕초등학교</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 인덕로 71 3동 406호</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:35:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>이유라</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>criticwriting0</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>11</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 성실로 50 206동 206호</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>이서원</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>starrysaetzombi</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>13</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>문덕초등학교</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 냉천로 340 1동 202호</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>최하율</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>knowledgelingui</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>13</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>구정초등학교</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 해병로 127 202동 408호</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-06-17 18:58:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>박민결</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>violin7</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>13</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>포항원동초등학교</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 남원로 85 2차부영아파트 119동 502호</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:06:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>원다해</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>epicrush</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>12</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>상대초등학교</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 대해로79번길 14-10 성경빌라 가동 501호</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:16:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>홍준하</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>throwdowngucci</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>13</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>포항동부초등학교</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 삼흥로18번길 6 1동 509호</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>김은성</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>imaginativespor</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 용두산길 62 102동 102호</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:32:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>정우준</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>wisemotivated8</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>11</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 용두산길 62 102동 304호</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:38:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>변시헌</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mentor09</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>11</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>상대초등학교</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 중흥로161번길 24-8 경동하이츠13차 B동 307호</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:44:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>윤은성</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>freehong</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>13</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 삼흥로88번길 10 101동 508호</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-06-17 19:55:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>이하엘</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>facilitatorluna</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>13</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>인덕초등학교</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 인덕로 71 3동 204호</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:01:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>정채훈</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>summerwizard3</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>11</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>포항원동초등학교</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 문덕로12번길 6 나동 509호</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:09:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>구예주</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>producerimagina</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>13</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>장량초등학교</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 용두산길 62 102동 406호</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:17:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>정윤재</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>free50</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>12</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>포항원동초등학교</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>경북 포항시 남구 오천읍 남원로 85 2차부영아파트 119동 307호</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>류서온</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sustainabilityd</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>12</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>포항중앙초등학교</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 우창로 20 205동 201호</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:31:09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
